--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3941.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3941.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.121321517654002</v>
+        <v>0.5988863706588745</v>
       </c>
       <c r="B1">
-        <v>1.638365029115593</v>
+        <v>0.8039505481719971</v>
       </c>
       <c r="C1">
-        <v>3.296496989584194</v>
+        <v>4.249866008758545</v>
       </c>
       <c r="D1">
-        <v>6.389746398256059</v>
+        <v>2.005975723266602</v>
       </c>
       <c r="E1">
-        <v>1.862711362202063</v>
+        <v>1.047523856163025</v>
       </c>
     </row>
   </sheetData>
